--- a/templates/template-zahlungserinnerung_deu_v2.11.xlsx
+++ b/templates/template-zahlungserinnerung_deu_v2.11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e04076db59a41c7/^NDatenbank^N/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{5B7D196A-1309-4D30-917B-7DF37FB8252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34209811-B6BF-4008-98F4-94E231EA1CED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1EC18F-0D0C-4A68-A94C-4A71C717F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B183A5AF-6DC4-46B2-AF21-F182EA3F3214}"/>
   </bookViews>
@@ -65,30 +65,6 @@
     <t>{Sender}</t>
   </si>
   <si>
-    <t>{B16}</t>
-  </si>
-  <si>
-    <t>{B18}</t>
-  </si>
-  <si>
-    <t>{B20}</t>
-  </si>
-  <si>
-    <t>{B21}</t>
-  </si>
-  <si>
-    <t>{B22}</t>
-  </si>
-  <si>
-    <t>{B23}</t>
-  </si>
-  <si>
-    <t>{B26}</t>
-  </si>
-  <si>
-    <t>{B27}</t>
-  </si>
-  <si>
     <t>{Bank}</t>
   </si>
   <si>
@@ -99,6 +75,30 @@
   </si>
   <si>
     <t>{Recipient}</t>
+  </si>
+  <si>
+    <t>{Grund}</t>
+  </si>
+  <si>
+    <t>{Anrede}</t>
+  </si>
+  <si>
+    <t>{Satz1}</t>
+  </si>
+  <si>
+    <t>{Satz2}</t>
+  </si>
+  <si>
+    <t>{Satz3}</t>
+  </si>
+  <si>
+    <t>{Satz4}</t>
+  </si>
+  <si>
+    <t>{Gruß}</t>
+  </si>
+  <si>
+    <t>{Name}</t>
   </si>
 </sst>
 </file>
@@ -466,9 +466,51 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -480,48 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -549,10 +549,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,7 +874,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -893,17 +889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -930,60 +926,60 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="39" t="s">
-        <v>20</v>
+      <c r="B5" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="27" t="s">
         <v>3</v>
       </c>
@@ -1023,158 +1019,158 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="B20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="B22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
     </row>
@@ -1218,52 +1214,57 @@
       <c r="F45" s="18"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="39">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -1276,22 +1277,17 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift eine Beschreibung ein." sqref="B16" xr:uid="{EDC98C97-9940-4A45-BA6C-1F95A7E716D5}"/>
